--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D084F884-5D49-45B0-8243-CFB6517CFC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F17C2A6-BE93-4923-9302-494E85A23D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="143">
   <si>
     <t>C001</t>
   </si>
@@ -225,10 +225,6 @@
   </si>
   <si>
     <t>NVARCHAR2(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(30)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,6 +520,14 @@
   </si>
   <si>
     <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南鎮公義路1035號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -618,31 +622,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,6 +642,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -992,54 +990,54 @@
         <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -1048,10 +1046,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>3</v>
@@ -1059,22 +1057,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1083,10 +1081,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>3</v>
@@ -1094,22 +1092,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -1118,10 +1116,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>3</v>
@@ -1129,22 +1127,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1153,10 +1151,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>3</v>
@@ -1164,22 +1162,22 @@
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1188,10 +1186,10 @@
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>13</v>
@@ -1199,22 +1197,22 @@
     </row>
     <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1223,10 +1221,10 @@
         <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>13</v>
@@ -1234,22 +1232,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1258,10 +1256,10 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
@@ -1269,22 +1267,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1293,10 +1291,10 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>17</v>
@@ -1304,22 +1302,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1328,10 +1326,10 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>17</v>
@@ -1339,22 +1337,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1363,83 +1361,83 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -1448,10 +1446,10 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>3</v>
@@ -1459,22 +1457,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -1483,10 +1481,10 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>3</v>
@@ -1494,22 +1492,22 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -1518,10 +1516,10 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>3</v>
@@ -1529,22 +1527,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -1553,173 +1551,173 @@
         <v>2</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="5" t="s">
+      <c r="K22" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="23" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G23" s="4">
         <v>2</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="5">
-        <v>2</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1728,10 +1726,10 @@
         <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>17</v>
@@ -1739,22 +1737,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -1763,923 +1761,923 @@
         <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="B53" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D53" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="7">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="7">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="7">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="7">
+        <v>2</v>
+      </c>
+      <c r="E66" s="7">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="7">
+        <v>2</v>
+      </c>
+      <c r="E67" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="7">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1</v>
+      </c>
+      <c r="E70" s="7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="7">
+        <v>1</v>
+      </c>
+      <c r="E71" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="B79" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26" s="5" t="s">
+      <c r="D79" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="5" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5" t="s">
+      <c r="D95" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="C96" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="10">
-        <v>1</v>
-      </c>
-      <c r="E60" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="10">
-        <v>1</v>
-      </c>
-      <c r="E61" s="10">
-        <v>3142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="10">
-        <v>1</v>
-      </c>
-      <c r="E62" s="10">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="10">
-        <v>1</v>
-      </c>
-      <c r="E63" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="11">
-        <v>1</v>
-      </c>
-      <c r="E64" s="10">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65" s="11">
-        <v>1</v>
-      </c>
-      <c r="E65" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="11">
-        <v>2</v>
-      </c>
-      <c r="E66" s="10">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="11">
-        <v>2</v>
-      </c>
-      <c r="E67" s="10">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="10">
-        <v>1</v>
-      </c>
-      <c r="E68" s="10">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" s="10">
-        <v>1</v>
-      </c>
-      <c r="E69" s="10">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" s="10">
-        <v>1</v>
-      </c>
-      <c r="E70" s="10">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="D96" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="10">
-        <v>1</v>
-      </c>
-      <c r="E71" s="10">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="7" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A30:K30"/>
     <mergeCell ref="A14:K14"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A30:K30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F17C2A6-BE93-4923-9302-494E85A23D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18191950-0348-4952-8591-A6AB74F90D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="157">
   <si>
     <t>C001</t>
   </si>
@@ -101,22 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,62 +152,6 @@
     <t>類別</t>
   </si>
   <si>
-    <t>C005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NVARCHAR2(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,38 +192,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FACILITY_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CATEGORY</t>
-  </si>
-  <si>
-    <t>CATEGORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VILLAGE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> EVACUATION_FACILITY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FACILITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CAPACITY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BASEMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> EVACUATION_FACILITY_INFORMATION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,67 +372,226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苗栗縣竹南鎮中埔街20號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮和平街79號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍山路三段142號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣後龍鎮中華路1498號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣苗栗市米市街80號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣苗栗市光復路117號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣苗栗市博愛街109號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣苗栗市大同路53號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣頭份市民族里和平路102號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣頭份市忠孝忠孝一路69號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣頭份市信義里中正路65號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣頭份市信義里中正路116號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CATEGORY_NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>竹南鎮公義路1035號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CR 建議
+1. 建議CHAR型別改成VARCHAR2(可變動長度的字串)
+2. NVARCHAR2的大小可以寬裕一點
+3. EVACUATION_FACILITY的ADDR，苗栗縣可以去除
+4. EVACUATION_FACILITY的ADDR要多一個管轄分局的欄位
+5. EVACUATION_FACILITY缺少類別的欄位            
+6. PO的ADDR，苗栗縣可以去除
+7. CATEGORY在這裡不需要用到，可以不用拆出來
+8. EVACUATION_FACILITY_INFORMATION也不需要用到，可以不用建    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(4)</t>
+  </si>
+  <si>
+    <t>竹南鎮中埔街20號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南鎮和平街79號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南鎮龍山路三段142號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後龍鎮中華路1498號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗市綠苗里中正路 766 號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米市街80號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗市光復路117號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗市博愛街109號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗市大同路53號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭份市民族里和平路102號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭份市忠孝忠孝一路69號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭份市信義里中正路65號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭份市信義里中正路116號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南鎮民族街72號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗市金鳳街109號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭份市中興路503號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南分局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭份分局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 747 4796</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 732 0059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 766 3004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大埔里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 758 1072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山佳里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埔頂里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠苗里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠孝里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義里信義路53巷1號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠孝里光大街82號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族里民族路96號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後龍鎮埔頂里中興路136-1號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南鎮山佳里國光街 14 號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南鎮竹南里中山路 103 號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-472735</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-614186</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-724839</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-333240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-660001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-661145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-616072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗分局</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -603,13 +667,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,17 +710,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -977,7 +1056,7 @@
     <col min="4" max="4" width="27.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.125" style="1" bestFit="1" customWidth="1"/>
@@ -987,57 +1066,57 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -1046,10 +1125,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>3</v>
@@ -1057,22 +1136,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1081,10 +1160,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>3</v>
@@ -1092,22 +1171,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -1116,10 +1195,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>3</v>
@@ -1127,22 +1206,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1151,10 +1230,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>3</v>
@@ -1162,22 +1241,22 @@
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1186,10 +1265,10 @@
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>13</v>
@@ -1197,22 +1276,22 @@
     </row>
     <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1221,10 +1300,10 @@
         <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>13</v>
@@ -1232,22 +1311,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1256,10 +1335,10 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
@@ -1267,22 +1346,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1291,10 +1370,10 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>17</v>
@@ -1302,22 +1381,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1326,10 +1405,10 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>17</v>
@@ -1337,22 +1416,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1361,83 +1440,83 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -1446,33 +1525,33 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -1481,33 +1560,33 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -1516,33 +1595,33 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -1551,33 +1630,33 @@
         <v>2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
@@ -1586,33 +1665,33 @@
         <v>12</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -1621,33 +1700,33 @@
         <v>12</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="G22" s="4">
         <v>2</v>
@@ -1656,33 +1735,33 @@
         <v>12</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="G23" s="4">
         <v>2</v>
@@ -1691,33 +1770,33 @@
         <v>12</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1726,33 +1805,33 @@
         <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -1761,33 +1840,33 @@
         <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -1796,33 +1875,33 @@
         <v>16</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -1831,855 +1910,659 @@
         <v>16</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="12"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C44" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="C45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="B52" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7">
+        <v>100</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="B53" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7">
+        <v>3142</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="B54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1072</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7">
+        <v>32</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7">
+        <v>106</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="7">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7">
+        <v>26</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="D58" s="7">
+        <v>2</v>
+      </c>
+      <c r="E58" s="7">
+        <v>2038</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="7">
+        <v>2</v>
+      </c>
+      <c r="E59" s="7">
+        <v>128</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7">
+        <v>353</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="7">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7">
+        <v>501</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="7">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7">
+        <v>194</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="7">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7">
+        <v>78</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="7" t="s">
+      <c r="D68" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="7">
-        <v>1</v>
-      </c>
-      <c r="E60" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="7">
-        <v>1</v>
-      </c>
-      <c r="E61" s="7">
-        <v>3142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="7">
-        <v>1</v>
-      </c>
-      <c r="E62" s="7">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="7" t="s">
+      <c r="C71" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="7">
-        <v>1</v>
-      </c>
-      <c r="E63" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="7">
-        <v>1</v>
-      </c>
-      <c r="E64" s="7">
+    </row>
+    <row r="79" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="7">
-        <v>1</v>
-      </c>
-      <c r="E65" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" s="7">
-        <v>2</v>
-      </c>
-      <c r="E66" s="7">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="7">
-        <v>2</v>
-      </c>
-      <c r="E67" s="7">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="7">
-        <v>1</v>
-      </c>
-      <c r="E68" s="7">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D69" s="7">
-        <v>1</v>
-      </c>
-      <c r="E69" s="7">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D70" s="7">
-        <v>1</v>
-      </c>
-      <c r="E70" s="7">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" s="7">
-        <v>1</v>
-      </c>
-      <c r="E71" s="7">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A81:E81"/>
+  <mergeCells count="6">
     <mergeCell ref="A30:K30"/>
     <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A31:L31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18191950-0348-4952-8591-A6AB74F90D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A06434C-FEC9-4317-B87D-E16EC0A0164A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="158">
   <si>
     <t>C001</t>
   </si>
@@ -592,6 +592,10 @@
   </si>
   <si>
     <t>苗栗分局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR2(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,23 +714,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,7 +1040,7 @@
   <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1450,19 +1445,19 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1920,42 +1915,42 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
@@ -1964,7 +1959,6 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
@@ -1979,7 +1973,6 @@
       <c r="D36" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
@@ -1994,7 +1987,6 @@
       <c r="D37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
@@ -2009,7 +2001,6 @@
       <c r="D38" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
@@ -2024,7 +2015,6 @@
       <c r="D39" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
@@ -2039,7 +2029,6 @@
       <c r="D40" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
@@ -2054,7 +2043,6 @@
       <c r="D41" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -2069,7 +2057,6 @@
       <c r="D42" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
@@ -2084,7 +2071,6 @@
       <c r="D43" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
@@ -2099,7 +2085,6 @@
       <c r="D44" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
@@ -2114,19 +2099,18 @@
       <c r="D45" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E45" s="14"/>
       <c r="F45" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
@@ -2204,7 +2188,7 @@
       <c r="F52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2227,7 +2211,7 @@
       <c r="F53" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2250,7 +2234,7 @@
       <c r="F54" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2273,7 +2257,7 @@
       <c r="F55" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2296,7 +2280,7 @@
       <c r="F56" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2319,7 +2303,7 @@
       <c r="F57" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2342,7 +2326,7 @@
       <c r="F58" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2365,7 +2349,7 @@
       <c r="F59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2388,7 +2372,7 @@
       <c r="F60" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2411,7 +2395,7 @@
       <c r="F61" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="7" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2434,7 +2418,7 @@
       <c r="F62" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2457,17 +2441,17 @@
       <c r="F63" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -2493,13 +2477,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>38</v>
